--- a/thesis_data.xlsx
+++ b/thesis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270A40F-C7AD-46F8-9C5C-832D607CDD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD88C21D-4543-47F1-A71D-3367D1B0622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="684" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="108" yWindow="168" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t>isfahan</t>
   </si>
   <si>
-    <t>nicht zugelassen</t>
+    <t>zugelassen</t>
   </si>
   <si>
-    <t>umr-fb12-finalthesis_1.0_2024-10-31</t>
+    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
   </si>
 </sst>
 </file>
@@ -358,7 +358,7 @@
   <dimension ref="J1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,7 +386,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="1">
-        <v>45627</v>
+        <v>36861</v>
       </c>
       <c r="R1" t="s">
         <v>1</v>

--- a/thesis_data.xlsx
+++ b/thesis_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD88C21D-4543-47F1-A71D-3367D1B0622D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965ABF04-3A9F-4446-9817-7165EBFC508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="168" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
+  <si>
+    <t>Freisleben, Bernd, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Tischhauser, Elmar, Prof. Dr.</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Data Science</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>ds246@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>david.schneider@students.uni-marburg.de</t>
+  </si>
+  <si>
+    <t>Musterstrasse 8, 35037 Marburg, Germany</t>
+  </si>
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>isfahan</t>
+    <t>Munich, Germany</t>
   </si>
   <si>
     <t>zugelassen</t>
   </si>
   <si>
+    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
+  </si>
+  <si>
+    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
+  </si>
+  <si>
     <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
+  </si>
+  <si>
+    <t>Davl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matriculation </t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>prof</t>
+  </si>
+  <si>
+    <t>second prof</t>
   </si>
 </sst>
 </file>
@@ -355,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="J1:U5"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -374,54 +428,249 @@
     <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="102.44140625" customWidth="1"/>
+    <col min="21" max="21" width="103.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
       <c r="J1" s="1"/>
-      <c r="N1" t="b">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2345678</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>20181</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45778</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>15124681012</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>36207</v>
+      </c>
+      <c r="R2" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1">
-        <v>36861</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="S1" t="s">
+      <c r="C3">
+        <v>2345678</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>20181</v>
+      </c>
+      <c r="I3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>45778</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>15124681012</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>36207</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="10:21" x14ac:dyDescent="0.3">
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2345678</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>20181</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="1">
+        <v>45778</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>15124681012</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>36207</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="10:21" x14ac:dyDescent="0.3">
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="10:21" x14ac:dyDescent="0.3">
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="10:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/thesis_data.xlsx
+++ b/thesis_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QR Project\V0\QRScannerService\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965ABF04-3A9F-4446-9817-7165EBFC508F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D94236-9F2B-4387-9BFB-B971F65D1222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1488" windowWidth="11712" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,74 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="22">
-  <si>
-    <t>Freisleben, Bernd, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Tischhauser, Elmar, Prof. Dr.</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>Prof</t>
-  </si>
-  <si>
-    <t>ds246@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>david.schneider@students.uni-marburg.de</t>
-  </si>
-  <si>
-    <t>Musterstrasse 8, 35037 Marburg, Germany</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>Munich, Germany</t>
-  </si>
-  <si>
-    <t>zugelassen</t>
-  </si>
-  <si>
-    <t>The applicant has submitted a current Transcript of Records (ToR) to me. I am willing to assign the named topic for the Master</t>
-  </si>
-  <si>
-    <t>s thesis on the stated issue date and hereby confirm the above information about fulfillment of the admission requirements.</t>
-  </si>
-  <si>
-    <t>umr-fb12-finalthesis_1.0.1_2025-02-06</t>
-  </si>
-  <si>
-    <t>Davl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matriculation </t>
-  </si>
-  <si>
-    <t>first name</t>
-  </si>
-  <si>
-    <t>second</t>
-  </si>
-  <si>
-    <t>prof</t>
-  </si>
-  <si>
-    <t>second prof</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V7"/>
+  <dimension ref="J1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -434,240 +367,37 @@
     <col min="21" max="21" width="103.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
+    <row r="1" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2345678</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>20181</v>
-      </c>
-      <c r="I2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>45778</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2">
-        <v>15124681012</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>36207</v>
-      </c>
-      <c r="R2" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" t="s">
-        <v>13</v>
-      </c>
-      <c r="U2" t="s">
-        <v>14</v>
-      </c>
-      <c r="V2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2345678</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>20181</v>
-      </c>
-      <c r="I3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1">
-        <v>45778</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>15124681012</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>36207</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" t="s">
-        <v>13</v>
-      </c>
-      <c r="U3" t="s">
-        <v>14</v>
-      </c>
-      <c r="V3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2345678</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>20181</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1">
-        <v>45778</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>15124681012</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>36207</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="S4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T4" t="s">
-        <v>13</v>
-      </c>
-      <c r="U4" t="s">
-        <v>14</v>
-      </c>
-      <c r="V4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="10:18" x14ac:dyDescent="0.3">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:18" x14ac:dyDescent="0.3">
       <c r="J7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
